--- a/slab, col, pad 3 in 1.xlsx
+++ b/slab, col, pad 3 in 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khsur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19072A8C-60F2-4561-90BA-B63830F65C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD24CB-C8DC-40D8-9263-E1F301A003F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79094DF3-977C-407C-9F90-827D961E0018}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="633">
   <si>
     <t>Design life for cover (w/out fire resistance)</t>
   </si>
@@ -706,9 +706,6 @@
     <t xml:space="preserve">rho_1 = </t>
   </si>
   <si>
-    <t>&lt;=2</t>
-  </si>
-  <si>
     <t>TAKING MIN OF A_sb AS NOT SURE WHAT TO TAKE HERE</t>
   </si>
   <si>
@@ -1928,13 +1925,25 @@
   </si>
   <si>
     <t>SEE rho_min = A_s,min/A_c &gt;=0.002</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>NUMBER IS SWAPPED!! HENCE REINF IS NEEDED???????</t>
+  </si>
+  <si>
+    <t>SHLD BE BAR DIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,6 +2012,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2055,7 +2071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2071,21 +2087,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2117,7 +2132,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>478576</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46864</xdr:rowOff>
+      <xdr:rowOff>49422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2159,9 +2174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>582234</xdr:colOff>
+      <xdr:colOff>579349</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>145020</xdr:rowOff>
+      <xdr:rowOff>142462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,7 +2220,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>437201</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>45614</xdr:rowOff>
+      <xdr:rowOff>48172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2291,9 +2306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>564287</xdr:colOff>
+      <xdr:colOff>561729</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>143731</xdr:rowOff>
+      <xdr:rowOff>141173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2430,7 +2445,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>77723</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124453</xdr:rowOff>
+      <xdr:rowOff>124451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2516,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444993</xdr:colOff>
+      <xdr:colOff>444995</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>141359</xdr:rowOff>
+      <xdr:rowOff>141361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2560,7 +2575,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>107084</xdr:colOff>
+      <xdr:colOff>107086</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>113723</xdr:rowOff>
     </xdr:to>
@@ -2604,9 +2619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
+      <xdr:colOff>183175</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>65337</xdr:rowOff>
+      <xdr:rowOff>65339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2649,7 +2664,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>629867</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>8824</xdr:rowOff>
+      <xdr:rowOff>8822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2693,7 +2708,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>95399</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>104329</xdr:rowOff>
+      <xdr:rowOff>104331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2735,7 +2750,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>274178</xdr:colOff>
+      <xdr:colOff>274176</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>16396</xdr:rowOff>
     </xdr:to>
@@ -3224,13 +3239,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430E24E-ECB2-4422-B0FB-B3F5C0DE939F}">
   <dimension ref="A1:XFA247"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" customWidth="1"/>
     <col min="9" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11699,7 +11714,7 @@
       </c>
     </row>
     <row r="32" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E32">
@@ -11913,8 +11928,8 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="5">
-        <f>5*7.7</f>
-        <v>38.5</v>
+        <f>E49</f>
+        <v>49.125</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>64</v>
@@ -11982,8 +11997,8 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="5">
-        <f>5*7.7</f>
-        <v>38.5</v>
+        <f>E60</f>
+        <v>49.125</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>64</v>
@@ -12054,8 +12069,8 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="5">
-        <f>5*7.7</f>
-        <v>38.5</v>
+        <f>E71</f>
+        <v>49.125</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>64</v>
@@ -12077,8 +12092,8 @@
         <v>68</v>
       </c>
       <c r="E87">
-        <f>D15+E37+D19*(5)/E49</f>
-        <v>8.4437022900763363</v>
+        <f>D15+E37+D19*(5+7.7+2.5)/E49</f>
+        <v>10.623854961832061</v>
       </c>
       <c r="F87" t="s">
         <v>25</v>
@@ -12125,7 +12140,7 @@
       </c>
       <c r="E93">
         <f>E87*1.35+E91*1.5</f>
-        <v>21.898998091603055</v>
+        <v>24.842204198473283</v>
       </c>
       <c r="F93" t="s">
         <v>25</v>
@@ -12144,8 +12159,8 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="5">
-        <f>5*7.7</f>
-        <v>38.5</v>
+        <f>E82</f>
+        <v>49.125</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>64</v>
@@ -12451,7 +12466,7 @@
       </c>
       <c r="G130" s="1">
         <f>MAX(E70,E81,E93)</f>
-        <v>21.898998091603055</v>
+        <v>24.842204198473283</v>
       </c>
       <c r="H130" t="s">
         <v>25</v>
@@ -12480,7 +12495,7 @@
       </c>
       <c r="M132" s="1">
         <f>G132*G130*F127^2</f>
-        <v>48.725270753816794</v>
+        <v>55.27390434160305</v>
       </c>
       <c r="N132" t="s">
         <v>102</v>
@@ -12490,7 +12505,7 @@
       <c r="Q132" s="6"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="E133" t="s">
+      <c r="D133" t="s">
         <v>103</v>
       </c>
       <c r="O133" s="6"/>
@@ -12512,7 +12527,7 @@
       </c>
       <c r="M134" s="1">
         <f>G134*G130*F127^2</f>
-        <v>36.680821803435123</v>
+        <v>41.610692032442756</v>
       </c>
       <c r="N134" t="s">
         <v>102</v>
@@ -12547,7 +12562,7 @@
       </c>
       <c r="M136">
         <f>G136*G130*F128^2</f>
-        <v>78.215186988281246</v>
+        <v>88.727239413281239</v>
       </c>
       <c r="N136" t="s">
         <v>102</v>
@@ -12557,7 +12572,7 @@
       <c r="Q136" s="6"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="E137" t="s">
+      <c r="D137" t="s">
         <v>103</v>
       </c>
       <c r="O137" s="6"/>
@@ -12579,7 +12594,7 @@
       </c>
       <c r="M138">
         <f>G138*G130*F128^2</f>
-        <v>59.189871234374991</v>
+        <v>67.144937934374994</v>
       </c>
       <c r="N138" t="s">
         <v>102</v>
@@ -12598,7 +12613,7 @@
       <c r="F140" t="s">
         <v>117</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12617,7 +12632,7 @@
       <c r="E143" t="s">
         <v>121</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="10">
         <f>M121</f>
         <v>74.545383691406244</v>
       </c>
@@ -12645,7 +12660,7 @@
       <c r="E144" t="s">
         <v>124</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="10">
         <f>M123</f>
         <v>56.323178789062503</v>
       </c>
@@ -12672,7 +12687,7 @@
       </c>
       <c r="G145">
         <f>M132</f>
-        <v>48.725270753816794</v>
+        <v>55.27390434160305</v>
       </c>
       <c r="H145" t="s">
         <v>102</v>
@@ -12694,7 +12709,7 @@
       </c>
       <c r="G146">
         <f>M134</f>
-        <v>36.680821803435123</v>
+        <v>41.610692032442756</v>
       </c>
       <c r="H146" t="s">
         <v>102</v>
@@ -12737,7 +12752,7 @@
       </c>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D150" t="s">
@@ -12761,7 +12776,7 @@
       </c>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B151" s="14"/>
+      <c r="B151" s="21"/>
       <c r="D151" t="s">
         <v>144</v>
       </c>
@@ -12783,7 +12798,7 @@
       </c>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B152" s="14"/>
+      <c r="B152" s="21"/>
       <c r="D152" t="s">
         <v>149</v>
       </c>
@@ -12806,7 +12821,7 @@
       </c>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B153" s="14"/>
+      <c r="B153" s="21"/>
       <c r="D153" t="s">
         <v>152</v>
       </c>
@@ -12841,7 +12856,7 @@
       </c>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B154" s="14"/>
+      <c r="B154" s="21"/>
       <c r="D154" t="s">
         <v>159</v>
       </c>
@@ -12903,7 +12918,7 @@
       </c>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="21" t="s">
         <v>174</v>
       </c>
       <c r="D159" t="s">
@@ -12911,27 +12926,27 @@
       </c>
       <c r="E159">
         <f>G145*10^3*10^3/(L146*L143^2*10^3)</f>
-        <v>5.1256037610852651E-2</v>
+        <v>5.8144804041134042E-2</v>
       </c>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B160" s="14"/>
+      <c r="B160" s="21"/>
       <c r="D160" t="s">
         <v>144</v>
       </c>
       <c r="E160">
         <f>$L$143*(0.5+SQRT(0.25-3*E159/3.4))</f>
-        <v>185.74134270074313</v>
+        <v>184.42184027823609</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B161" s="14"/>
+      <c r="B161" s="21"/>
       <c r="D161" t="s">
         <v>175</v>
       </c>
       <c r="E161" s="1">
         <f>MAX(H161,E160)</f>
-        <v>185.74134270074313</v>
+        <v>185.25</v>
       </c>
       <c r="F161" t="s">
         <v>5</v>
@@ -12945,13 +12960,13 @@
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B162" s="14"/>
+      <c r="B162" s="21"/>
       <c r="D162" t="s">
         <v>152</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="10">
         <f>G145*10^3*10^3/(0.87*$L$147*E161)</f>
-        <v>603.05430684814769</v>
+        <v>685.9187409571166</v>
       </c>
       <c r="F162" t="s">
         <v>153</v>
@@ -12968,7 +12983,7 @@
       <c r="M162" t="s">
         <v>157</v>
       </c>
-      <c r="N162">
+      <c r="N162" s="10">
         <f>(10/2)^2*PI()*1000/125</f>
         <v>628.31853071795865</v>
       </c>
@@ -12977,7 +12992,7 @@
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B163" s="14"/>
+      <c r="B163" s="21"/>
       <c r="D163" t="s">
         <v>159</v>
       </c>
@@ -13008,7 +13023,7 @@
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B164" s="14"/>
+      <c r="B164" s="21"/>
       <c r="G164" t="s">
         <v>167</v>
       </c>
@@ -13020,7 +13035,7 @@
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B165" s="14"/>
+      <c r="B165" s="21"/>
       <c r="D165" t="s">
         <v>178</v>
       </c>
@@ -13029,7 +13044,7 @@
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B166" s="14"/>
+      <c r="B166" s="21"/>
       <c r="E166" t="s">
         <v>180</v>
       </c>
@@ -13043,7 +13058,7 @@
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B167" s="14"/>
+      <c r="B167" s="21"/>
       <c r="E167" t="s">
         <v>181</v>
       </c>
@@ -13063,10 +13078,10 @@
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B168" s="14"/>
+      <c r="B168" s="21"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B169" s="14"/>
+      <c r="B169" s="21"/>
       <c r="E169" t="s">
         <v>183</v>
       </c>
@@ -13107,7 +13122,7 @@
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D174" t="s">
@@ -13119,7 +13134,7 @@
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B175" s="14"/>
+      <c r="B175" s="21"/>
       <c r="D175" t="s">
         <v>144</v>
       </c>
@@ -13129,7 +13144,7 @@
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B176" s="14"/>
+      <c r="B176" s="21"/>
       <c r="D176" t="s">
         <v>175</v>
       </c>
@@ -13149,7 +13164,7 @@
       </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B177" s="14"/>
+      <c r="B177" s="21"/>
       <c r="D177" t="s">
         <v>152</v>
       </c>
@@ -13181,7 +13196,7 @@
       </c>
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B178" s="14"/>
+      <c r="B178" s="21"/>
       <c r="D178" t="s">
         <v>159</v>
       </c>
@@ -13233,7 +13248,7 @@
       </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="21" t="s">
         <v>174</v>
       </c>
       <c r="D183" t="s">
@@ -13241,27 +13256,27 @@
       </c>
       <c r="E183">
         <f>G146*10^3*10^3/(L146*L143^2*10^3)</f>
-        <v>3.8586005841877845E-2</v>
+        <v>4.3771931132089686E-2</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B184" s="14"/>
+      <c r="B184" s="21"/>
       <c r="D184" t="s">
         <v>144</v>
       </c>
       <c r="E184">
         <f>$L$143*(0.5+SQRT(0.25-3*E183/3.4))</f>
-        <v>188.11805978875711</v>
+        <v>187.15287134292706</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B185" s="14"/>
+      <c r="B185" s="21"/>
       <c r="D185" t="s">
         <v>175</v>
       </c>
       <c r="E185" s="1">
         <f>MAX(H185,E184)</f>
-        <v>188.11805978875711</v>
+        <v>187.15287134292706</v>
       </c>
       <c r="F185" t="s">
         <v>5</v>
@@ -13275,13 +13290,13 @@
       </c>
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B186" s="14"/>
+      <c r="B186" s="21"/>
       <c r="D186" t="s">
         <v>152</v>
       </c>
       <c r="E186">
         <f>G146*10^3*10^3/(0.87*$L$147*E185)</f>
-        <v>448.24897927635612</v>
+        <v>511.11565965609191</v>
       </c>
       <c r="F186" t="s">
         <v>153</v>
@@ -13310,7 +13325,7 @@
       </c>
     </row>
     <row r="187" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B187" s="14"/>
+      <c r="B187" s="21"/>
       <c r="D187" t="s">
         <v>159</v>
       </c>
@@ -13338,7 +13353,7 @@
       </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B188" s="14"/>
+      <c r="B188" s="21"/>
       <c r="G188" t="s">
         <v>167</v>
       </c>
@@ -13350,7 +13365,7 @@
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B189" s="14"/>
+      <c r="B189" s="21"/>
       <c r="D189" t="s">
         <v>191</v>
       </c>
@@ -13359,7 +13374,7 @@
       </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B190" s="14"/>
+      <c r="B190" s="21"/>
       <c r="E190" t="s">
         <v>180</v>
       </c>
@@ -13373,7 +13388,7 @@
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B191" s="14"/>
+      <c r="B191" s="21"/>
       <c r="E191" t="s">
         <v>181</v>
       </c>
@@ -13393,10 +13408,10 @@
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B192" s="14"/>
+      <c r="B192" s="21"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B193" s="14"/>
+      <c r="B193" s="21"/>
       <c r="E193" t="s">
         <v>183</v>
       </c>
@@ -13453,9 +13468,13 @@
       <c r="B199" t="s">
         <v>196</v>
       </c>
-      <c r="J199" t="s">
+      <c r="I199" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="J199" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="K199" s="10"/>
       <c r="L199" s="1">
         <f>MAX(E104,E59)</f>
         <v>17.161020992366414</v>
@@ -13470,11 +13489,11 @@
         <f>7.7+2.125</f>
         <v>9.8249999999999993</v>
       </c>
-      <c r="P199" s="13" t="s">
+      <c r="P199" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="Q199" s="13"/>
-      <c r="R199" s="13"/>
+      <c r="Q199" s="20"/>
+      <c r="R199" s="20"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C200" t="s">
@@ -13498,9 +13517,9 @@
       <c r="O200">
         <v>5</v>
       </c>
-      <c r="P200" s="13"/>
-      <c r="Q200" s="13"/>
-      <c r="R200" s="13"/>
+      <c r="P200" s="20"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="20"/>
     </row>
     <row r="201" spans="1:18" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C201" t="s">
@@ -13525,9 +13544,9 @@
         <f>$E$34</f>
         <v>195</v>
       </c>
-      <c r="P201" s="13"/>
-      <c r="Q201" s="13"/>
-      <c r="R201" s="13"/>
+      <c r="P201" s="20"/>
+      <c r="Q201" s="20"/>
+      <c r="R201" s="20"/>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.4">
       <c r="N202" t="s">
@@ -13536,9 +13555,9 @@
       <c r="O202">
         <v>25</v>
       </c>
-      <c r="P202" s="13"/>
-      <c r="Q202" s="13"/>
-      <c r="R202" s="13"/>
+      <c r="P202" s="20"/>
+      <c r="Q202" s="20"/>
+      <c r="R202" s="20"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F203" t="s">
@@ -13548,9 +13567,9 @@
         <f>F200*L199*O199</f>
         <v>101.16421875</v>
       </c>
-      <c r="P203" s="13"/>
-      <c r="Q203" s="13"/>
-      <c r="R203" s="13"/>
+      <c r="P203" s="20"/>
+      <c r="Q203" s="20"/>
+      <c r="R203" s="20"/>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F204" t="s">
@@ -13560,9 +13579,9 @@
         <f>F201*L199*O199</f>
         <v>67.442812500000002</v>
       </c>
-      <c r="P204" s="13"/>
-      <c r="Q204" s="13"/>
-      <c r="R204" s="13"/>
+      <c r="P204" s="20"/>
+      <c r="Q204" s="20"/>
+      <c r="R204" s="20"/>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F205" t="s">
@@ -13572,9 +13591,9 @@
         <f>J200*L199*O200</f>
         <v>34.322041984732827</v>
       </c>
-      <c r="P205" s="13"/>
-      <c r="Q205" s="13"/>
-      <c r="R205" s="13"/>
+      <c r="P205" s="20"/>
+      <c r="Q205" s="20"/>
+      <c r="R205" s="20"/>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F206" t="s">
@@ -13589,12 +13608,16 @@
       <c r="B208" t="s">
         <v>210</v>
       </c>
-      <c r="J208" t="s">
+      <c r="I208" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="J208" s="10" t="s">
         <v>211</v>
       </c>
+      <c r="K208" s="10"/>
       <c r="L208" s="1">
         <f>MAX(E70,E81,E93)</f>
-        <v>21.898998091603055</v>
+        <v>24.842204198473283</v>
       </c>
       <c r="M208" t="s">
         <v>25</v>
@@ -13616,11 +13639,11 @@
       <c r="J209">
         <v>0.36</v>
       </c>
-      <c r="P209" s="13" t="s">
+      <c r="P209" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="Q209" s="13"/>
-      <c r="R209" s="13"/>
+      <c r="Q209" s="20"/>
+      <c r="R209" s="20"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C210" t="s">
@@ -13648,14 +13671,14 @@
       <c r="O210" t="s">
         <v>93</v>
       </c>
-      <c r="P210" s="13"/>
-      <c r="Q210" s="13"/>
-      <c r="R210" s="13"/>
+      <c r="P210" s="20"/>
+      <c r="Q210" s="20"/>
+      <c r="R210" s="20"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="P211" s="13"/>
-      <c r="Q211" s="13"/>
-      <c r="R211" s="13"/>
+      <c r="P211" s="20"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="20"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C212" t="s">
@@ -13666,11 +13689,11 @@
       </c>
       <c r="H212">
         <f>F209*L208*O199</f>
-        <v>111.88198125</v>
-      </c>
-      <c r="P212" s="13"/>
-      <c r="Q212" s="13"/>
-      <c r="R212" s="13"/>
+        <v>126.91882124999999</v>
+      </c>
+      <c r="P212" s="20"/>
+      <c r="Q212" s="20"/>
+      <c r="R212" s="20"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F213" t="s">
@@ -13682,9 +13705,9 @@
       <c r="I213" t="s">
         <v>214</v>
       </c>
-      <c r="P213" s="13"/>
-      <c r="Q213" s="13"/>
-      <c r="R213" s="13"/>
+      <c r="P213" s="20"/>
+      <c r="Q213" s="20"/>
+      <c r="R213" s="20"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
@@ -13695,11 +13718,11 @@
       </c>
       <c r="H214">
         <f>J209*L208*O200</f>
-        <v>39.418196564885491</v>
-      </c>
-      <c r="P214" s="13"/>
-      <c r="Q214" s="13"/>
-      <c r="R214" s="13"/>
+        <v>44.715967557251908</v>
+      </c>
+      <c r="P214" s="20"/>
+      <c r="Q214" s="20"/>
+      <c r="R214" s="20"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F215" t="s">
@@ -13707,11 +13730,11 @@
       </c>
       <c r="H215">
         <f>J210*L208*O200</f>
-        <v>26.278797709923666</v>
-      </c>
-      <c r="P215" s="13"/>
-      <c r="Q215" s="13"/>
-      <c r="R215" s="13"/>
+        <v>29.810645038167941</v>
+      </c>
+      <c r="P215" s="20"/>
+      <c r="Q215" s="20"/>
+      <c r="R215" s="20"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.4">
       <c r="F218" t="s">
@@ -13719,7 +13742,7 @@
       </c>
       <c r="H218" s="1">
         <f>MAX(H212:H215,H203:H206)</f>
-        <v>111.88198125</v>
+        <v>126.91882124999999</v>
       </c>
       <c r="I218" t="s">
         <v>217</v>
@@ -13745,40 +13768,43 @@
         <v>1.3425609630725612E-3</v>
       </c>
       <c r="E222" t="s">
+        <v>630</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
         <v>222</v>
-      </c>
-      <c r="J222" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D223">
         <f>1+SQRT(200/O201)</f>
         <v>2.0127393670836664</v>
       </c>
       <c r="H223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D224">
         <f>0.18/1.5</f>
         <v>0.12</v>
       </c>
       <c r="F224" t="s">
+        <v>226</v>
+      </c>
+      <c r="G224" t="s">
         <v>227</v>
       </c>
-      <c r="G224" t="s">
+      <c r="I224" t="s">
         <v>228</v>
-      </c>
-      <c r="I224" t="s">
-        <v>229</v>
       </c>
       <c r="J224">
         <v>1.5</v>
@@ -13786,7 +13812,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C225" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D225">
         <v>0.15</v>
@@ -13794,38 +13820,38 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="F226" t="s">
+        <v>231</v>
+      </c>
+      <c r="G226" t="s">
         <v>232</v>
-      </c>
-      <c r="G226" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D227" s="1">
         <f>((D224*D223*(100*D222*O202)^(1/3)+D225*D226))*1000*O201</f>
         <v>70517.148065888134</v>
       </c>
       <c r="E227" t="s">
+        <v>234</v>
+      </c>
+      <c r="F227" t="s">
         <v>235</v>
-      </c>
-      <c r="F227" t="s">
-        <v>236</v>
       </c>
       <c r="G227" s="1">
         <f>((0.035*D223^(3/2)*O202^0.5)+D225*D226)*1000*O201</f>
         <v>97443.746118594863</v>
       </c>
       <c r="H227" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.4">
@@ -13845,22 +13871,28 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F230">
+      <c r="E230" s="10"/>
+      <c r="F230" s="10">
         <f>H218</f>
-        <v>111.88198125</v>
-      </c>
-      <c r="G230" t="s">
-        <v>237</v>
-      </c>
-      <c r="H230">
+        <v>126.91882124999999</v>
+      </c>
+      <c r="G230" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H230" s="10">
         <f>G228</f>
         <v>97.443746118594859</v>
       </c>
-      <c r="J230" t="s">
+      <c r="I230" s="10"/>
+      <c r="J230" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K230" t="s">
-        <v>238</v>
+      <c r="K230" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="L230" s="10"/>
+      <c r="M230" s="22" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.4">
@@ -13872,7 +13904,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M232" t="s">
         <v>90</v>
@@ -13892,10 +13924,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B234" t="s">
+        <v>239</v>
+      </c>
+      <c r="C234" t="s">
         <v>240</v>
-      </c>
-      <c r="C234" t="s">
-        <v>241</v>
       </c>
       <c r="E234">
         <f>5000/N234</f>
@@ -13911,30 +13943,30 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B235" t="s">
+        <v>241</v>
+      </c>
+      <c r="C235" t="s">
         <v>242</v>
-      </c>
-      <c r="C235" t="s">
-        <v>243</v>
       </c>
       <c r="E235">
         <f>N186/1000/N234*100</f>
         <v>0.26851219261451226</v>
       </c>
       <c r="F235" t="s">
+        <v>243</v>
+      </c>
+      <c r="G235" t="s">
+        <v>232</v>
+      </c>
+      <c r="I235" t="s">
         <v>244</v>
-      </c>
-      <c r="G235" t="s">
-        <v>233</v>
-      </c>
-      <c r="I235" t="s">
-        <v>245</v>
       </c>
       <c r="J235">
         <f>SQRT(N235)*10^-3*100</f>
         <v>0.5</v>
       </c>
       <c r="K235" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M235" t="s">
         <v>20</v>
@@ -13945,19 +13977,19 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C236" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E236">
         <v>1.3</v>
       </c>
       <c r="G236" t="s">
+        <v>246</v>
+      </c>
+      <c r="J236" t="s">
         <v>247</v>
       </c>
-      <c r="J236" t="s">
+      <c r="M236" t="s">
         <v>248</v>
-      </c>
-      <c r="M236" t="s">
-        <v>249</v>
       </c>
       <c r="N236">
         <v>500</v>
@@ -13965,30 +13997,30 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C237" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E237">
         <f>7/5</f>
         <v>1.4</v>
       </c>
       <c r="G237" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G238" t="s">
+        <v>251</v>
+      </c>
+      <c r="I238" t="s">
         <v>252</v>
-      </c>
-      <c r="I238" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B239" t="s">
+        <v>253</v>
+      </c>
+      <c r="D239" t="s">
         <v>254</v>
-      </c>
-      <c r="D239" t="s">
-        <v>255</v>
       </c>
       <c r="J239" t="s">
         <v>9</v>
@@ -13996,83 +14028,83 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C240" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D240">
         <f>11+1.5*N235^(0.5)*J235/E235+3.2*N235^(0.5)*((J235/E235-1)^(1.5))</f>
         <v>37.773398860075631</v>
       </c>
       <c r="G240" t="s">
+        <v>256</v>
+      </c>
+      <c r="J240" t="s">
         <v>257</v>
       </c>
-      <c r="J240" t="s">
+      <c r="L240" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="L240" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="M240" s="13"/>
-      <c r="N240" s="13"/>
+      <c r="M240" s="20"/>
+      <c r="N240" s="20"/>
     </row>
     <row r="241" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C241" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D241">
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>261</v>
-      </c>
-      <c r="L241" s="13"/>
-      <c r="M241" s="13"/>
-      <c r="N241" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="L241" s="20"/>
+      <c r="M241" s="20"/>
+      <c r="N241" s="20"/>
     </row>
     <row r="242" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C242" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D242">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>263</v>
-      </c>
-      <c r="L242" s="13"/>
-      <c r="M242" s="13"/>
-      <c r="N242" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="L242" s="20"/>
+      <c r="M242" s="20"/>
+      <c r="N242" s="20"/>
     </row>
     <row r="243" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E243">
         <f>(500)/(N236*E186/N186)</f>
-        <v>1.1680980879054892</v>
+        <v>1.0244232703623408</v>
       </c>
       <c r="G243" t="s">
-        <v>265</v>
-      </c>
-      <c r="L243" s="13"/>
-      <c r="M243" s="13"/>
-      <c r="N243" s="13"/>
+        <v>264</v>
+      </c>
+      <c r="L243" s="20"/>
+      <c r="M243" s="20"/>
+      <c r="N243" s="20"/>
     </row>
     <row r="244" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="L244" s="13"/>
-      <c r="M244" s="13"/>
-      <c r="N244" s="13"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="20"/>
+      <c r="N244" s="20"/>
     </row>
     <row r="245" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E245">
         <f>D240*D241*D242*E243*E236</f>
-        <v>57.359945476789456</v>
+        <v>50.304733430821734</v>
       </c>
       <c r="G245" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J245" t="s">
         <v>12</v>
@@ -14080,7 +14112,7 @@
     </row>
     <row r="247" spans="3:14" x14ac:dyDescent="0.4">
       <c r="J247" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -14102,9 +14134,10 @@
     <hyperlink ref="L177" r:id="rId6" xr:uid="{E83EE8CF-5CDA-4C61-8E55-5406E6253F72}"/>
     <hyperlink ref="L186" r:id="rId7" xr:uid="{1B253A13-FB06-429F-A5C9-3D33AA37FEAF}"/>
     <hyperlink ref="Q155" r:id="rId8" display="https://www.yourspreadsheets.co.uk/reinforcement-areas-and-weights.html" xr:uid="{ED6FD5C9-84D2-4DEF-BBE2-9FFB2AF893FC}"/>
+    <hyperlink ref="G140" r:id="rId9" xr:uid="{866065B6-6F61-4877-BC1B-0464497542DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -14112,8 +14145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77834FC2-364F-4A9F-A23F-C47D6F714A96}">
   <dimension ref="A1:AE153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14124,7 +14157,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1">
         <v>50</v>
@@ -14132,46 +14165,51 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
         <v>270</v>
       </c>
-      <c r="C3" t="s">
-        <v>271</v>
+      <c r="J3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
         <v>272</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>273</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
-        <v>275</v>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D5" s="22" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6">
+        <v>275</v>
+      </c>
+      <c r="C6" s="10">
         <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="N6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -14180,10 +14218,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" t="s">
         <v>280</v>
-      </c>
-      <c r="G7" t="s">
-        <v>281</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -14198,7 +14236,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8">
         <v>36</v>
@@ -14207,7 +14245,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -14220,7 +14258,7 @@
         <v>4H12</v>
       </c>
       <c r="L8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M8">
         <f>C8-H7-H8/2</f>
@@ -14232,7 +14270,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -14243,7 +14281,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G10">
         <f>MAX(C6:C7,10)</f>
@@ -14255,13 +14293,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G11">
         <f>G10+C9</f>
@@ -14273,7 +14311,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B12">
         <v>500</v>
@@ -14281,7 +14319,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13">
         <v>0.4</v>
@@ -14290,7 +14328,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13" s="3">
         <f>H8/2+H7+G11</f>
@@ -14302,23 +14340,23 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14">
         <f>C13^2</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" t="s">
         <v>292</v>
-      </c>
-      <c r="F16" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -14334,7 +14372,7 @@
         <v>43.8125</v>
       </c>
       <c r="I17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -14342,7 +14380,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="8"/>
     </row>
@@ -14361,15 +14399,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" t="s">
         <v>295</v>
-      </c>
-      <c r="G22" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G23" t="s">
         <v>72</v>
@@ -14382,7 +14420,7 @@
         <v>217</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -14398,7 +14436,7 @@
         <v>438.70234375000001</v>
       </c>
       <c r="J24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -14406,12 +14444,12 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D27">
         <f>C14</f>
@@ -14435,24 +14473,24 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" t="s">
         <v>300</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>301</v>
-      </c>
-      <c r="F31" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.4">
@@ -14475,7 +14513,7 @@
         <v>67</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M37" s="1">
         <f>Sheet2!E37</f>
@@ -14574,7 +14612,7 @@
         <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L41" s="3">
         <f>(D41+D48)*(7.7+2.125)*5/4+(D55+D62)*(7.7*5)/4</f>
@@ -14590,14 +14628,14 @@
         <v>13.089503816793894</v>
       </c>
       <c r="E42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L42" s="12">
         <f>(D42+D49)*(7.7+2.125)*5/4+(D56+D63)*(7.7*5)/4</f>
         <v>516.03218750000008</v>
       </c>
       <c r="M42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P42" t="s">
         <v>59</v>
@@ -14658,7 +14696,7 @@
         <v>76</v>
       </c>
       <c r="J47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.4">
@@ -14680,7 +14718,7 @@
         <v>0.24750000000000003</v>
       </c>
       <c r="M48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -14689,10 +14727,10 @@
         <v>11.443702290076336</v>
       </c>
       <c r="E49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L49">
         <f>25*L48</f>
@@ -14704,10 +14742,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K50" t="s">
         <v>309</v>
-      </c>
-      <c r="K50" t="s">
-        <v>310</v>
       </c>
       <c r="L50">
         <f>L49*(7.7+2.125+7.7+5+5)/2</f>
@@ -14722,7 +14760,7 @@
         <v>67</v>
       </c>
       <c r="J51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
@@ -14737,7 +14775,7 @@
         <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L52">
         <f>3*3.5*(5+5)/2</f>
@@ -14752,12 +14790,12 @@
         <v>70</v>
       </c>
       <c r="J53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E54">
         <f>(Sheet2!E42+Sheet2!E44)/2</f>
@@ -14790,7 +14828,7 @@
         <v>137.65546875000001</v>
       </c>
       <c r="M55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -14799,12 +14837,12 @@
         <v>12.435</v>
       </c>
       <c r="E56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -14814,7 +14852,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E59">
         <f>Sheet2!D15+Sheet2!E37</f>
@@ -14824,7 +14862,7 @@
         <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
@@ -14834,7 +14872,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E61">
         <f>Sheet2!E44</f>
@@ -14862,12 +14900,12 @@
         <v>9.875</v>
       </c>
       <c r="E63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="J64" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K64"/>
       <c r="L64"/>
@@ -14875,7 +14913,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="D65" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L65" s="5">
         <f>L54+L41+I23</f>
@@ -14887,27 +14925,27 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L66" s="5">
         <f>L55+L42+I24</f>
         <v>1092.3900000000001</v>
       </c>
       <c r="M66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" t="s">
         <v>320</v>
-      </c>
-      <c r="E67" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="Q68" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
@@ -14921,10 +14959,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q70" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="Q70" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
@@ -14932,7 +14970,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71">
         <f>4.375</f>
@@ -14942,7 +14980,7 @@
         <v>217</v>
       </c>
       <c r="E71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F71">
         <f>C71/6*3.5</f>
@@ -14954,7 +14992,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C72">
         <v>13.475</v>
@@ -14963,7 +15001,7 @@
         <v>217</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F72">
         <f>C72/6*4</f>
@@ -14975,7 +15013,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C73">
         <v>4.375</v>
@@ -14984,7 +15022,7 @@
         <v>217</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F73">
         <f>C73/3*3.5</f>
@@ -14996,7 +15034,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C74">
         <v>8.75</v>
@@ -15005,7 +15043,7 @@
         <v>217</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F74">
         <f>C74/6*4</f>
@@ -15017,7 +15055,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="D75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F75">
         <f>MAX(F73,F71)</f>
@@ -15029,7 +15067,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="D76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F76">
         <f>MAX(F74,F72)</f>
@@ -15041,21 +15079,21 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B77" s="1"/>
       <c r="F77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.4">
@@ -15064,12 +15102,12 @@
         <v>6.25</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.4">
@@ -15078,17 +15116,17 @@
         <v>18.3125</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B85" s="3">
         <f>C80*(E40+E54)/(5)*1.5</f>
@@ -15098,12 +15136,12 @@
         <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B86" s="3">
         <f>C82*(E40+E47)/(7.7*2.125)*1.5</f>
@@ -15113,42 +15151,42 @@
         <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A87" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16">
+      <c r="A87" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13">
         <f>MAX(B86,B85)</f>
         <v>10.78125</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E87" s="19" t="s">
-        <v>595</v>
+      <c r="E87" s="16" t="s">
+        <v>594</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.4">
       <c r="N88" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O88">
         <v>4</v>
       </c>
       <c r="R88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B89">
         <f>C14</f>
@@ -15158,24 +15196,24 @@
         <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E89">
         <f>B89^2/12</f>
         <v>2.1333333333333343E-3</v>
       </c>
       <c r="F89" t="s">
+        <v>344</v>
+      </c>
+      <c r="J89" t="s">
         <v>345</v>
-      </c>
-      <c r="J89" t="s">
-        <v>346</v>
       </c>
       <c r="K89">
         <f>E89/P89</f>
         <v>6.1835748792270554E-4</v>
       </c>
       <c r="N89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P89">
         <f>4-0.55</f>
@@ -15184,7 +15222,7 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90">
         <f>0.45*0.55</f>
@@ -15194,30 +15232,30 @@
         <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E90">
         <f>0.45^3*0.55/12</f>
         <v>4.1765625000000006E-3</v>
       </c>
       <c r="F90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H90" t="s">
+        <v>349</v>
+      </c>
+      <c r="J90" t="s">
         <v>350</v>
-      </c>
-      <c r="J90" t="s">
-        <v>351</v>
       </c>
       <c r="K90">
         <f>E90/5</f>
         <v>8.3531250000000012E-4</v>
       </c>
       <c r="L90" t="s">
+        <v>351</v>
+      </c>
+      <c r="N90" t="s">
         <v>352</v>
-      </c>
-      <c r="N90" t="s">
-        <v>353</v>
       </c>
       <c r="P90">
         <f>B85*5^2/12</f>
@@ -15227,7 +15265,7 @@
         <v>102</v>
       </c>
       <c r="R90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S90" s="3">
         <f>P90*(B97/(B97+0.5*K90+0.5*K90))</f>
@@ -15239,7 +15277,7 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B91">
         <f>0.45*0.55</f>
@@ -15249,30 +15287,30 @@
         <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E91">
         <f>0.45^3*0.55/12</f>
         <v>4.1765625000000006E-3</v>
       </c>
       <c r="F91" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H91" t="s">
+        <v>356</v>
+      </c>
+      <c r="J91" t="s">
         <v>357</v>
-      </c>
-      <c r="J91" t="s">
-        <v>358</v>
       </c>
       <c r="K91">
         <f>E91/7.7</f>
         <v>5.4241071428571435E-4</v>
       </c>
       <c r="L91" t="s">
+        <v>358</v>
+      </c>
+      <c r="N91" t="s">
         <v>359</v>
-      </c>
-      <c r="N91" t="s">
-        <v>360</v>
       </c>
       <c r="P91">
         <f>B86*(9.825)^2/12</f>
@@ -15282,7 +15320,7 @@
         <v>102</v>
       </c>
       <c r="R91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S91" s="3">
         <f>P91*(K89/(K89+0.5*K91+0.5*K92))</f>
@@ -15294,31 +15332,31 @@
     </row>
     <row r="92" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="H92" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="K92" s="1">
         <f>E91/9.825</f>
         <v>4.2509541984732835E-4</v>
       </c>
       <c r="L92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U92" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA92" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S93">
         <f>MAX(S90:S91)</f>
@@ -15326,15 +15364,15 @@
       </c>
       <c r="T93" s="1"/>
       <c r="U93" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AA93" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B94">
         <f>S93+F76/2+F75/2</f>
@@ -15344,11 +15382,11 @@
         <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T94" s="1"/>
       <c r="V94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W94">
         <f>S90+F72/2+F71/2</f>
@@ -15358,7 +15396,7 @@
         <v>102</v>
       </c>
       <c r="AB94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AC94">
         <f>S90+F74/2+F73/2</f>
@@ -15370,7 +15408,7 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B95">
         <f>F76/2</f>
@@ -15380,13 +15418,13 @@
         <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H95" t="s">
-        <v>599</v>
-      </c>
-      <c r="K95" s="20" t="s">
         <v>598</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>597</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -15394,11 +15432,11 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="R95" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T95" s="1"/>
       <c r="V95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W95">
         <f>F72/2</f>
@@ -15408,7 +15446,7 @@
         <v>102</v>
       </c>
       <c r="AB95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC95">
         <f>F74/2</f>
@@ -15423,14 +15461,14 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B97">
         <f>H99/H97</f>
         <v>20.469691362177638</v>
       </c>
       <c r="G97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H97">
         <f>SQRT(E89/B89)</f>
@@ -15440,49 +15478,49 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B98">
         <f>20*0.7*1.1*(1.7-H101)/SQRT(L65*10^3/(300*300*E98))</f>
         <v>31.224070248383612</v>
       </c>
       <c r="D98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E98">
         <f>30/E100*E99</f>
         <v>17</v>
       </c>
       <c r="F98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G98" t="s">
         <v>374</v>
-      </c>
-      <c r="G98" t="s">
-        <v>375</v>
       </c>
       <c r="H98">
         <f>K89/((K90+K90+K91+K92))</f>
         <v>0.23439224833147407</v>
       </c>
       <c r="I98" t="s">
+        <v>375</v>
+      </c>
+      <c r="J98" t="s">
         <v>376</v>
       </c>
-      <c r="J98" t="s">
+      <c r="L98" t="s">
         <v>377</v>
-      </c>
-      <c r="L98" t="s">
-        <v>378</v>
       </c>
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D99" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E99">
         <v>0.85</v>
       </c>
       <c r="G99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H99">
         <f>0.5*4*SQRT((1+0.1/(0.45+0.1))*(1+0.1/(0.45+0.1)))</f>
@@ -15495,10 +15533,10 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E100">
         <v>1.5</v>
@@ -15507,17 +15545,17 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
+        <v>381</v>
+      </c>
+      <c r="G101" t="s">
         <v>382</v>
-      </c>
-      <c r="G101" t="s">
-        <v>383</v>
       </c>
       <c r="H101">
         <f>J102/J103</f>
         <v>-0.30971251259504612</v>
       </c>
       <c r="I101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J101">
         <f>H99/400</f>
@@ -15527,14 +15565,14 @@
         <v>29</v>
       </c>
       <c r="L101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M101">
         <f>C13/30</f>
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="N101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O101" s="3">
         <v>0.02</v>
@@ -15546,7 +15584,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.4">
       <c r="I102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J102">
         <f>MIN(B94:B95)-O101*L65</f>
@@ -15556,11 +15594,11 @@
         <v>102</v>
       </c>
       <c r="L102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T102" s="1"/>
       <c r="V102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W102">
         <f>MIN(W94:W95)-O101*L65</f>
@@ -15570,10 +15608,10 @@
         <v>102</v>
       </c>
       <c r="Y102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AB102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AC102">
         <f>MIN(AC94:AC95)-U101*R65</f>
@@ -15583,12 +15621,12 @@
         <v>102</v>
       </c>
       <c r="AE102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.4">
       <c r="I103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J103">
         <f>MAX(B94:B95)+O101*L65</f>
@@ -15598,11 +15636,11 @@
         <v>102</v>
       </c>
       <c r="L103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T103" s="1"/>
       <c r="V103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W103">
         <f>MAX(W94:W95)+O101*L65</f>
@@ -15612,10 +15650,10 @@
         <v>102</v>
       </c>
       <c r="Y103" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB103" t="s">
         <v>388</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>389</v>
       </c>
       <c r="AC103">
         <f>MAX(AC94:AC95)+U101*R65</f>
@@ -15625,19 +15663,19 @@
         <v>102</v>
       </c>
       <c r="AE103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="105" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
+        <v>389</v>
+      </c>
+      <c r="B105" t="s">
         <v>390</v>
       </c>
-      <c r="B105" t="s">
+      <c r="E105" t="s">
         <v>391</v>
-      </c>
-      <c r="E105" t="s">
-        <v>392</v>
       </c>
       <c r="F105">
         <f>O101*L65</f>
@@ -15645,26 +15683,26 @@
       </c>
       <c r="T105" s="1"/>
       <c r="U105" t="s">
+        <v>389</v>
+      </c>
+      <c r="V105" t="s">
         <v>390</v>
       </c>
-      <c r="V105" t="s">
+      <c r="X105" t="s">
         <v>391</v>
-      </c>
-      <c r="X105" t="s">
-        <v>392</v>
       </c>
       <c r="Y105">
         <f>F105</f>
         <v>30.064342500000002</v>
       </c>
       <c r="AA105" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB105" t="s">
         <v>390</v>
       </c>
-      <c r="AB105" t="s">
+      <c r="AD105" t="s">
         <v>391</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>392</v>
       </c>
       <c r="AE105">
         <f>L105</f>
@@ -15673,14 +15711,14 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>393</v>
-      </c>
-      <c r="B106" s="20">
+        <v>392</v>
+      </c>
+      <c r="B106" s="17">
         <f>F106</f>
         <v>82.569075492180716</v>
       </c>
       <c r="E106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F106">
         <f>J103</f>
@@ -15688,28 +15726,28 @@
       </c>
       <c r="T106" s="1"/>
       <c r="U106" t="s">
-        <v>393</v>
-      </c>
-      <c r="V106" s="20">
+        <v>392</v>
+      </c>
+      <c r="V106" s="17">
         <f>Y106</f>
         <v>58.292071800888735</v>
       </c>
       <c r="X106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y106">
         <f>W103</f>
         <v>58.292071800888735</v>
       </c>
       <c r="AA106" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB106" s="20">
+        <v>392</v>
+      </c>
+      <c r="AB106" s="17">
         <f>AE106</f>
         <v>27.928770967555394</v>
       </c>
       <c r="AD106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE106">
         <f>AC103</f>
@@ -15721,61 +15759,61 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
+        <v>393</v>
+      </c>
+      <c r="D108" t="s">
         <v>394</v>
-      </c>
-      <c r="D108" t="s">
-        <v>395</v>
       </c>
       <c r="E108" s="3">
         <f>G13/(C13*1000)</f>
         <v>0.1075</v>
       </c>
       <c r="F108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G108">
         <v>0.15</v>
       </c>
       <c r="I108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.4">
       <c r="T109" s="1"/>
-      <c r="V109" s="20" t="s">
-        <v>604</v>
+      <c r="V109" s="17" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B110" s="3">
         <f>L65*10^3/(C13*1000*C13*1000*30)</f>
         <v>0.31317023437500002</v>
       </c>
       <c r="C110" t="s">
+        <v>613</v>
+      </c>
+      <c r="G110" t="s">
         <v>614</v>
-      </c>
-      <c r="G110" t="s">
-        <v>615</v>
       </c>
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B111" s="3">
         <f>B106*10^6/((C13*1000)^2*(C13*1000)*30)</f>
         <v>4.3004726818844125E-2</v>
       </c>
       <c r="C111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H111" t="s">
         <v>160</v>
@@ -15791,7 +15829,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.4">
       <c r="G112" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I112">
         <f>I111</f>
@@ -15801,13 +15839,13 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>399</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C113" t="s">
         <v>400</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C113" t="s">
-        <v>401</v>
       </c>
       <c r="T113" s="1"/>
     </row>
@@ -15823,10 +15861,10 @@
         <v>153</v>
       </c>
       <c r="D114" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H114" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I114">
         <f>B12</f>
@@ -15836,10 +15874,10 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C115" s="5">
         <v>452</v>
@@ -15848,9 +15886,9 @@
         <v>153</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="F115" s="23"/>
+        <v>628</v>
+      </c>
+      <c r="F115" s="3"/>
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.4">
@@ -15862,7 +15900,7 @@
     <row r="118" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="119" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T119" s="1"/>
     </row>
@@ -15871,13 +15909,13 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="E121" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F121">
         <f>20/4</f>
@@ -15890,7 +15928,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T123" s="1"/>
     </row>
@@ -15899,10 +15937,10 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F125">
         <f>20*20</f>
@@ -15915,7 +15953,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.4">
       <c r="E126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F126">
         <v>300</v>
@@ -15935,81 +15973,81 @@
     <row r="128" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G130" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>410</v>
+      </c>
+      <c r="D131" t="s">
         <v>411</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>591</v>
+      </c>
+      <c r="G131" t="s">
         <v>412</v>
-      </c>
-      <c r="E131" t="s">
-        <v>592</v>
-      </c>
-      <c r="G131" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="19" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="B135" s="22">
+      <c r="B135" s="19">
         <f>L65</f>
         <v>1503.2171250000001</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D135" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A136" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B136" s="22">
+      <c r="A136" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B136" s="19">
         <f>B106</f>
         <v>82.569075492180716</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B138">
         <f>V106/0.4</f>
         <v>145.73017950222183</v>
       </c>
       <c r="D138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B139">
         <f>AB106/0.4</f>
@@ -16020,24 +16058,24 @@
         <v>0.4791178303449764</v>
       </c>
       <c r="G139" t="s">
+        <v>606</v>
+      </c>
+      <c r="H139" t="s">
         <v>607</v>
-      </c>
-      <c r="H139" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E141" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B143">
         <f>C115*I114/(300*300*30)</f>
@@ -16046,7 +16084,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B144">
         <f>B110</f>
@@ -16055,20 +16093,20 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C146">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D146" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E146">
         <f>C146*((0.4*1000)^3*30)/10^6</f>
         <v>134.4</v>
       </c>
       <c r="G146" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H146">
         <f>B106</f>
@@ -16080,12 +16118,12 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D149">
         <f>((C13*1000)^2*(0.85*30/1.5)+C115*(B12/1.15))*10^(-3)</f>
@@ -16097,22 +16135,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D150">
         <f>L65/D149</f>
         <v>0.51541433922182478</v>
       </c>
       <c r="F150" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H150" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B151">
         <v>1.5</v>
@@ -16120,14 +16158,14 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B153">
         <f>(V106/E146)^B151+(AB106/E146)^B151</f>
         <v>0.38036567415552613</v>
       </c>
       <c r="C153" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E153" t="s">
         <v>12</v>
@@ -16147,8 +16185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F0A5B9-4D63-45C4-A394-686B276B08E6}">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16159,12 +16197,12 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D2">
         <f>Sheet1!L66+D11</f>
@@ -16174,12 +16212,12 @@
         <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4">
         <v>175</v>
@@ -16193,7 +16231,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6">
         <f>D2/D4</f>
@@ -16205,7 +16243,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7">
         <v>3.8</v>
@@ -16214,12 +16252,12 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D8">
         <f>D7^2</f>
@@ -16229,12 +16267,12 @@
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9">
         <v>0.65</v>
@@ -16243,26 +16281,26 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11">
         <f>D10*D9*D8</f>
@@ -16272,7 +16310,7 @@
         <v>217</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
@@ -16282,13 +16320,13 @@
       <c r="K11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>575</v>
+      <c r="L11" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P11" s="1">
         <f>B108</f>
@@ -16296,7 +16334,7 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="S11" s="1">
         <f>D20</f>
@@ -16305,7 +16343,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="H12" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5">
@@ -16313,13 +16351,13 @@
         <v>3.8</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="20" t="s">
-        <v>576</v>
+      <c r="L12" s="17" t="s">
+        <v>575</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P12" s="5">
         <f>B109</f>
@@ -16327,7 +16365,7 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S12" s="5">
         <v>175</v>
@@ -16335,39 +16373,39 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" t="s">
         <v>427</v>
-      </c>
-      <c r="D13" t="s">
-        <v>428</v>
       </c>
       <c r="E13" s="5">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G13" t="s">
+        <v>582</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="R13" s="18" t="s">
         <v>583</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
@@ -16382,25 +16420,25 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D19" s="5">
         <f>Sheet1!L65+1.35*D11</f>
@@ -16410,12 +16448,12 @@
         <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D20" s="5">
         <f>D19/D8</f>
@@ -16425,43 +16463,43 @@
         <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>460</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>532</v>
+        <v>459</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B22">
         <f>D20*((D7-Sheet1!C13)/2)^2</f>
         <v>364.25100181786706</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -16470,7 +16508,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H28">
         <v>50</v>
@@ -16479,12 +16517,12 @@
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D30" s="5">
         <f>D9*1000-H28-D28</f>
@@ -16496,7 +16534,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D32">
         <f>(0.167*30*D7*1000*D30^2)/10^6</f>
@@ -16506,7 +16544,7 @@
         <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H32">
         <f>B22</f>
@@ -16519,30 +16557,30 @@
         <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D38">
         <f>H32*10^6/(E13*D7*1000*(D30^2))</f>
         <v>8.1412881598586315E-3</v>
       </c>
       <c r="E38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D39">
         <f>D30*(0.5+SQRT(0.25-D38/0.9))</f>
@@ -16552,7 +16590,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G39">
         <f>D30*0.95</f>
@@ -16562,22 +16600,22 @@
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D41" s="5">
         <f>H32*10^6/(0.87*500*D39)</f>
         <v>1457.0232504252042</v>
       </c>
       <c r="E41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -16585,119 +16623,119 @@
         <v>4187</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D43">
         <f>0.13%*D7*1000*D9*1000</f>
         <v>3211</v>
       </c>
       <c r="E43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="H47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B48">
         <f>1+SQRT(200/D30)</f>
         <v>1.5872202195147036</v>
       </c>
       <c r="C48" t="s">
+        <v>477</v>
+      </c>
+      <c r="D48" t="s">
         <v>478</v>
       </c>
-      <c r="D48" t="s">
-        <v>479</v>
-      </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F48">
         <f>MIN(B48,2)</f>
         <v>1.5872202195147036</v>
       </c>
       <c r="U48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B49">
         <f>0.035*B48^(3/2)*30^(1/2)</f>
         <v>0.38334027728660847</v>
       </c>
       <c r="C49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B50">
         <f>0.18/1.5</f>
         <v>0.12</v>
       </c>
       <c r="C50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F50">
         <f>D30</f>
         <v>580</v>
       </c>
       <c r="G50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
@@ -16709,7 +16747,7 @@
         <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F51">
         <f>(D7*1000-Sheet1!C13*1000)/2</f>
@@ -16721,46 +16759,46 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C54">
         <f>J41/((D9*1000)*D30)</f>
         <v>1.1106100795755969E-2</v>
       </c>
       <c r="E54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C55">
         <v>0.1</v>
       </c>
       <c r="D55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F55" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -16769,24 +16807,24 @@
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C57" s="3">
         <f>B50*B48*(100*C54*B51)^(1/3)*(2*F50/F51)</f>
         <v>0.44025475255121138</v>
       </c>
       <c r="D57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
@@ -16795,18 +16833,18 @@
         <v>0.26157336567792105</v>
       </c>
       <c r="D59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D61" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F61">
         <f>Sheet1!C13*4+(D30/1000*2)*2*PI()</f>
@@ -16818,7 +16856,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B62">
         <f>F63-H62</f>
@@ -16828,10 +16866,10 @@
         <v>217</v>
       </c>
       <c r="D62" t="s">
+        <v>505</v>
+      </c>
+      <c r="F62" t="s">
         <v>506</v>
-      </c>
-      <c r="F62" t="s">
-        <v>507</v>
       </c>
       <c r="H62">
         <f>D20*(Sheet1!C14+Sheet1!C13*(2*Sheet3!D30/1000)*4+PI()*(2*Sheet3!D30/1000)^2)</f>
@@ -16841,12 +16879,12 @@
         <v>217</v>
       </c>
       <c r="N62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F63">
         <f>D19</f>
@@ -16858,32 +16896,32 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B64" s="3">
         <f>B62*1000/(F61*1000*D30)</f>
         <v>0.20039380607544266</v>
       </c>
       <c r="C64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B67" t="s">
         <v>511</v>
-      </c>
-      <c r="B67" t="s">
-        <v>512</v>
       </c>
       <c r="C67">
         <f>C57</f>
         <v>0.44025475255121138</v>
       </c>
       <c r="D67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E67">
         <f>B64</f>
@@ -16894,336 +16932,336 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15" t="s">
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16" t="s">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A71" s="15" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A72" s="15" t="s">
+      <c r="B72" s="13">
+        <v>3</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="B72" s="15">
-        <v>3</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A73" s="15" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A74" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B74" s="15">
+      <c r="B74" s="13">
         <f>0.4*D30</f>
         <v>232</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="H74" s="15">
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" s="13">
         <v>500</v>
       </c>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A75" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="B75" s="15">
+      <c r="A75" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B75" s="13">
         <f>MIN((250+0.25*D30),H75)</f>
         <v>395</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="H75" s="15">
+      <c r="C75" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="H75" s="13">
         <f>H74/1.15</f>
         <v>434.78260869565219</v>
       </c>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13">
         <f>1.15*B62*1000/(C67*D30)</f>
         <v>4652.713509389966</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="K80" s="14"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87">
         <v>1.1499999999999999</v>
       </c>
       <c r="C87" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B88">
         <f>D30*2</f>
@@ -17235,7 +17273,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B89">
         <f>D19</f>
@@ -17247,79 +17285,79 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B90">
         <f>B89*1000*B87/(B88*D30)</f>
         <v>3.1108707175237815</v>
       </c>
       <c r="C90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D92" t="s">
+        <v>539</v>
+      </c>
+      <c r="E92" t="s">
         <v>540</v>
       </c>
-      <c r="E92" t="s">
-        <v>541</v>
-      </c>
       <c r="F92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B93">
         <f>0.6*(1-E13/250)</f>
         <v>0.51600000000000001</v>
       </c>
       <c r="D93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B94">
         <f>1*E13/1.5</f>
         <v>23.333333333333332</v>
       </c>
       <c r="D94" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B95">
         <f>0.5*B93*B94</f>
         <v>6.02</v>
       </c>
       <c r="C95" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C97">
         <f>B95</f>
         <v>6.02</v>
       </c>
       <c r="D97" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E97">
         <f>B90</f>
@@ -17331,23 +17369,23 @@
     </row>
     <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D101" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D102">
         <f>D7*(D7-(D7-Sheet1!C13)/2-D30/1000)</f>
@@ -17357,12 +17395,12 @@
         <v>153</v>
       </c>
       <c r="F102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C103">
         <f>D102*D20</f>
@@ -17374,7 +17412,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B104">
         <f>D19-C103</f>
@@ -17386,29 +17424,29 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D106" t="s">
+        <v>562</v>
+      </c>
+      <c r="E106" t="s">
         <v>563</v>
-      </c>
-      <c r="E106" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D107" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E107" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B108">
         <f>B104*1000/(D7*1000*D30)</f>
@@ -17417,19 +17455,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B109">
         <f>C57</f>
         <v>0.44025475255121138</v>
       </c>
       <c r="D109" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -17688,20 +17726,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="29bd5f13-9faf-49d5-85a7-b92cd10d3653" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="29bd5f13-9faf-49d5-85a7-b92cd10d3653" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17724,14 +17762,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D384D3C-DD1E-459D-95BD-F76945C428E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A991464-CABE-4C50-8DEB-90A2E957EF37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17746,4 +17776,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D384D3C-DD1E-459D-95BD-F76945C428E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/slab, col, pad 3 in 1.xlsx
+++ b/slab, col, pad 3 in 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khsur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD24CB-C8DC-40D8-9263-E1F301A003F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21E27D-BEF7-4BC6-892B-8015A4DA4905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79094DF3-977C-407C-9F90-827D961E0018}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="635">
   <si>
     <t>Design life for cover (w/out fire resistance)</t>
   </si>
@@ -1937,6 +1937,12 @@
   </si>
   <si>
     <t>SHLD BE BAR DIA</t>
+  </si>
+  <si>
+    <t>MISSED ROOF FLOOR SLAB</t>
+  </si>
+  <si>
+    <t>distance is diff, 7.7 and 9.825</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2101,6 +2107,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2445,7 +2455,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>77723</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124451</xdr:rowOff>
+      <xdr:rowOff>124438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2531,9 +2541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>444995</xdr:colOff>
+      <xdr:colOff>445008</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>141361</xdr:rowOff>
+      <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2569,15 +2579,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>157202</xdr:colOff>
+      <xdr:colOff>285109</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>57951</xdr:rowOff>
+      <xdr:rowOff>36180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>107086</xdr:colOff>
+      <xdr:colOff>230913</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>113723</xdr:rowOff>
+      <xdr:rowOff>97394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2600,8 +2610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6221186" y="13799564"/>
-          <a:ext cx="2562431" cy="1541352"/>
+          <a:off x="6495409" y="13428330"/>
+          <a:ext cx="2574704" cy="1506293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,9 +2629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>183175</xdr:colOff>
+      <xdr:colOff>183188</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>65339</xdr:rowOff>
+      <xdr:rowOff>65352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2655,16 +2665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>293593</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>90528</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10564</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>30579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>629867</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>8822</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56905</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>173465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2687,8 +2697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398147" y="15317721"/>
-          <a:ext cx="1642559" cy="1032503"/>
+          <a:off x="4889935" y="14703754"/>
+          <a:ext cx="2009777" cy="1229788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,16 +2709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>239486</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406644</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>103415</xdr:rowOff>
+      <xdr:rowOff>68142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95399</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255759</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>104331</xdr:rowOff>
+      <xdr:rowOff>69071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2731,8 +2741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9568543" y="14722929"/>
-          <a:ext cx="3118906" cy="1109868"/>
+          <a:off x="9264894" y="14538815"/>
+          <a:ext cx="3151668" cy="1099963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,15 +2754,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>493938</xdr:colOff>
+      <xdr:colOff>495090</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>83684</xdr:rowOff>
+      <xdr:rowOff>66728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>274176</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>16396</xdr:rowOff>
+      <xdr:colOff>275320</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>169008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2775,8 +2785,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7285263" y="18724109"/>
-          <a:ext cx="5697993" cy="3733187"/>
+          <a:off x="7375071" y="18933555"/>
+          <a:ext cx="5715042" cy="3771183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>182608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>351333</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>141409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914394DF-AE51-63EB-1F7F-EDA49CBB6B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13079730" y="14630128"/>
+          <a:ext cx="2719525" cy="1604716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2838,9 +2892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>232776</xdr:colOff>
+      <xdr:colOff>236858</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>92550</xdr:rowOff>
+      <xdr:rowOff>95271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2882,9 +2936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>27288</xdr:colOff>
+      <xdr:colOff>28649</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>103415</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3239,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430E24E-ECB2-4422-B0FB-B3F5C0DE939F}">
   <dimension ref="A1:XFA247"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14145,8 +14199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77834FC2-364F-4A9F-A23F-C47D6F714A96}">
   <dimension ref="A1:AE153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W99" sqref="W99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14189,7 +14243,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="23">
+        <f>H8</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>632</v>
       </c>
     </row>
@@ -14391,6 +14449,9 @@
       </c>
       <c r="B20" s="8" t="s">
         <v>217</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -15111,7 +15172,7 @@
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="C82">
+      <c r="C82" s="24">
         <f>(5*(2.125+7.7))/2-C80</f>
         <v>18.3125</v>
       </c>
@@ -15138,12 +15199,13 @@
       <c r="D85" t="s">
         <v>337</v>
       </c>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>338</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="25">
         <f>C82*(E40+E47)/(7.7*2.125)*1.5</f>
         <v>10.072574484339189</v>
       </c>
@@ -15153,6 +15215,10 @@
       <c r="D86" t="s">
         <v>337</v>
       </c>
+      <c r="E86" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="L86" s="24"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
@@ -15169,11 +15235,13 @@
       <c r="E87" s="16" t="s">
         <v>594</v>
       </c>
+      <c r="L87" s="24"/>
       <c r="N87" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="L88" s="24"/>
       <c r="N88" s="10" t="s">
         <v>340</v>
       </c>
@@ -15208,7 +15276,7 @@
       <c r="J89" t="s">
         <v>345</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="24">
         <f>E89/P89</f>
         <v>6.1835748792270554E-4</v>
       </c>
@@ -15247,7 +15315,7 @@
       <c r="J90" t="s">
         <v>350</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="24">
         <f>E90/5</f>
         <v>8.3531250000000012E-4</v>
       </c>
@@ -15302,7 +15370,7 @@
       <c r="J91" t="s">
         <v>357</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="24">
         <f>E91/7.7</f>
         <v>5.4241071428571435E-4</v>
       </c>
@@ -15337,7 +15405,7 @@
       <c r="J92" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K92" s="24">
         <f>E91/9.825</f>
         <v>4.2509541984732835E-4</v>
       </c>
@@ -15497,7 +15565,7 @@
       <c r="G98" t="s">
         <v>374</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="10">
         <f>K89/((K90+K90+K91+K92))</f>
         <v>0.23439224833147407</v>
       </c>
@@ -15705,8 +15773,8 @@
         <v>391</v>
       </c>
       <c r="AE105">
-        <f>L105</f>
-        <v>0</v>
+        <f>Y105</f>
+        <v>30.064342500000002</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.4">
@@ -15756,6 +15824,13 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.4">
       <c r="T107" s="1"/>
+      <c r="AA107" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB107" s="26">
+        <f>AE105</f>
+        <v>30.064342500000002</v>
+      </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
@@ -16037,23 +16112,35 @@
       <c r="A138" t="s">
         <v>604</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="10">
         <f>V106/0.4</f>
         <v>145.73017950222183</v>
       </c>
       <c r="D138" t="s">
         <v>417</v>
+      </c>
+      <c r="E138" s="10">
+        <f>V106/L65/0.4</f>
+        <v>9.6945529077991185E-2</v>
+      </c>
+      <c r="F138">
+        <f>E139/E138</f>
+        <v>0.47911783034497651</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>605</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="10">
         <f>AB106/0.4</f>
         <v>69.821927418888478</v>
       </c>
-      <c r="F139">
+      <c r="E139" s="10">
+        <f>AB106/L65/0.4</f>
+        <v>4.6448331553492969E-2</v>
+      </c>
+      <c r="F139" s="10">
         <f>B139/B138</f>
         <v>0.4791178303449764</v>
       </c>
@@ -16077,7 +16164,7 @@
       <c r="A143" t="s">
         <v>399</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="10">
         <f>C115*I114/(300*300*30)</f>
         <v>8.3703703703703697E-2</v>
       </c>
@@ -16086,7 +16173,7 @@
       <c r="A144" t="s">
         <v>397</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="10">
         <f>B110</f>
         <v>0.31317023437500002</v>
       </c>
@@ -16185,8 +16272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F0A5B9-4D63-45C4-A394-686B276B08E6}">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
